--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Ttacking horas de consuagro</t>
   </si>
@@ -362,20 +362,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -388,8 +388,11 @@
       <c r="D2" s="1">
         <v>43332</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -402,8 +405,14 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.33680555555555558</v>
       </c>
@@ -424,8 +433,14 @@
         <f>E4-D4</f>
         <v>0.12569444444444444</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.50277777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>0.44166666666666665</v>
       </c>
@@ -446,8 +461,14 @@
         <f>E5-D5</f>
         <v>2.6388888888888962E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.58888888888888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0.76388888888888884</v>
       </c>
@@ -462,7 +483,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.84236111111111101</v>
       </c>
@@ -474,11 +495,11 @@
         <v>7.4305555555555625E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>

--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\Anteproyecto\Graduacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Semana 5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Ttacking horas de consuagro</t>
   </si>
@@ -65,7 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -73,15 +73,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,155 +461,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>43331</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
-        <v>43332</v>
-      </c>
-      <c r="G2" s="1">
-        <v>43302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>0.33680555555555558</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <f>B4-A4</f>
         <v>8.5416666666666641E-2</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.48194444444444445</v>
       </c>
-      <c r="F4" s="2">
-        <f>E4-D4</f>
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.50277777777777777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>0.44166666666666665</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.48194444444444445</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <f t="shared" ref="C5:C7" si="0">B5-A5</f>
         <v>4.0277777777777801E-2</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.48472222222222222</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.51111111111111118</v>
-      </c>
-      <c r="F5" s="2">
-        <f>E5-D5</f>
-        <v>2.6388888888888962E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.58888888888888891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>0.76388888888888884</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <f t="shared" si="0"/>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="D6" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>0.84236111111111101</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="7">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>7.4305555555555625E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13">
         <f>SUM(C4:C7)</f>
         <v>0.2694444444444446</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <f>SUM(F4:F7)</f>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4">
+        <v>43332</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:C12" si="1">B11-A11</f>
+        <v>0.12569444444444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888962E-2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13">
+        <f>SUM(C11:C12)</f>
         <v>0.1520833333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4">
+        <v>43333</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:C18" si="2">B17-A17</f>
+        <v>0.16944444444444445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="2"/>
+        <v>6.3194444444444442E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="13">
+        <f>SUM(C16:C17)</f>
+        <v>0.16944444444444445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C22" s="13">
+        <f>B22-A22</f>
+        <v>0.12430555555555556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="C23" s="2">
+        <f>B23-A23</f>
+        <v>0.18750000000000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.75208333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Steve\Universidad\TEC\II Semestre 2018\Proyecto de graduación\Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Semana 5" sheetId="1" r:id="rId1"/>
+    <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
-  <si>
-    <t>Ttacking horas de consuagro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -38,18 +32,59 @@
     <t>Fin</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Gran total</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Totales diarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -65,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,9 +162,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -138,9 +171,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -148,6 +179,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -163,24 +207,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,278 +509,422 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43331</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+    </row>
+    <row r="3" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>43331</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>0.33680555555555558</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>0.42222222222222222</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <f>B4-A4</f>
         <v>8.5416666666666641E-2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="12">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.50277777777777777</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.16944444444444445</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="L4" s="8">
+        <f>K4-J4</f>
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0.15347222222222223</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.53125</v>
+      </c>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0.4909722222222222</v>
+      </c>
+      <c r="U4" s="8">
+        <f>T4-S4</f>
+        <v>0.12986111111111109</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>0.44166666666666665</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>0.48194444444444445</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <f t="shared" ref="C5:C7" si="0">B5-A5</f>
         <v>4.0277777777777801E-2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="5">
+        <v>0.48472222222222222</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" ref="F5:F6" si="1">E5-D5</f>
+        <v>2.6388888888888962E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0.18750000000000011</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="U5" s="6">
+        <f>T5-S5</f>
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>0.76388888888888884</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <f t="shared" si="0"/>
         <v>6.9444444444444531E-2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>0.84236111111111101</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <f t="shared" si="0"/>
         <v>7.4305555555555625E-2</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13">
-        <f>SUM(C4:C7)</f>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
         <v>0.2694444444444446</v>
       </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0.31875000000000014</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0.2326388888888889</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0.31180555555555567</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="S9" s="14"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="9">
+        <f>SUM(U4:U8)</f>
+        <v>0.19236111111111109</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4">
-        <v>43332</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.48194444444444445</v>
-      </c>
-      <c r="C11" s="10">
-        <f t="shared" ref="C11:C12" si="1">B11-A11</f>
-        <v>0.12569444444444444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>0.48472222222222222</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.51111111111111118</v>
-      </c>
-      <c r="C12" s="10">
-        <f t="shared" si="1"/>
-        <v>2.6388888888888962E-2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13">
-        <f>SUM(C11:C12)</f>
-        <v>0.1520833333333334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4">
-        <v>43333</v>
-      </c>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.50277777777777777</v>
-      </c>
-      <c r="C17" s="10">
-        <f t="shared" ref="C17:C18" si="2">B17-A17</f>
-        <v>0.16944444444444445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>0.52569444444444446</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.58888888888888891</v>
-      </c>
-      <c r="C18" s="10">
-        <f t="shared" si="2"/>
-        <v>6.3194444444444442E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="13">
-        <f>SUM(C16:C17)</f>
-        <v>0.16944444444444445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <v>43334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="C22" s="13">
-        <f>B22-A22</f>
-        <v>0.12430555555555556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="C23" s="2">
-        <f>B23-A23</f>
-        <v>0.18750000000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="1">
-        <v>43335</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>0.33611111111111108</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.62777777777777777</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.75208333333333333</v>
+      <c r="B10" s="18">
+        <f>SUM(C9,F9,I9,L9,O9,R9,U9)</f>
+        <v>1.8111111111111113</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
+    <sheet name="Semana 6" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -73,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -219,16 +221,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,104 +536,104 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11" t="s">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="16" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+    </row>
+    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -644,60 +648,60 @@
         <f>B4-A4</f>
         <v>8.5416666666666641E-2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.35625000000000001</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.48194444444444445</v>
       </c>
       <c r="F4" s="8">
         <f>E4-D4</f>
         <v>0.12569444444444444</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>0.50277777777777777</v>
       </c>
       <c r="I4" s="8">
         <f>H4-G4</f>
         <v>0.16944444444444445</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="12">
         <v>0.48888888888888887</v>
       </c>
       <c r="L4" s="8">
         <f>K4-J4</f>
         <v>0.12430555555555556</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>0.33611111111111108</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="12">
         <v>0.48958333333333331</v>
       </c>
       <c r="O4" s="8">
         <f>N4-M4</f>
         <v>0.15347222222222223</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="11">
         <v>0.32291666666666669</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="12">
         <v>0.53125</v>
       </c>
       <c r="R4" s="8">
         <f>Q4-P4</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="11">
         <v>0.3611111111111111</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="12">
         <v>0.4909722222222222</v>
       </c>
       <c r="U4" s="8">
@@ -861,56 +865,56 @@
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="9">
         <f>SUM(C4:C8)</f>
         <v>0.2694444444444446</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="9">
         <f>SUM(F4:F8)</f>
         <v>0.31875000000000014</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
         <v>0.2326388888888889</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="9">
         <f>SUM(L4:L8)</f>
         <v>0.31180555555555567</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="9">
         <f>SUM(O4:O8)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="9">
         <f>SUM(R4:R8)</f>
         <v>0.20833333333333331</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="15"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="14"/>
       <c r="U9" s="9">
         <f>SUM(U4:U8)</f>
         <v>0.19236111111111109</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9,U9)</f>
         <v>1.8111111111111113</v>
       </c>
@@ -927,4 +931,602 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43339</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.16319444444444448</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.31388888888888888</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.17152777777777778</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="L4" s="8">
+        <f>K4-J4</f>
+        <v>0.15972222222222227</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.94861111111111107</v>
+      </c>
+      <c r="C5" s="6">
+        <f>B5-A5</f>
+        <v>7.3611111111111072E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="32767" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43339</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="8">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="6">
+        <f>B5-A5</f>
+        <v>-0.83680555555555547</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
     <sheet name="Semana 6" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Semana 7" sheetId="4" r:id="rId3"/>
+    <sheet name="Semanas 8" sheetId="5" r:id="rId4"/>
+    <sheet name="Semana 9" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -209,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -229,10 +231,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,41 +540,41 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -958,36 +962,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1242,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,36 +1267,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19" t="s">
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1361,11 +1365,15 @@
         <f>B4-A4</f>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="11">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.47291666666666665</v>
+      </c>
       <c r="F4" s="8">
         <f>E4-D4</f>
-        <v>0</v>
+        <v>0.12222222222222223</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
@@ -1379,11 +1387,15 @@
         <f>K4-J4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.51388888888888895</v>
+      </c>
       <c r="O4" s="8">
         <f>N4-M4</f>
-        <v>0</v>
+        <v>9.7222222222222265E-2</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
@@ -1396,10 +1408,12 @@
       <c r="A5" s="5">
         <v>0.83680555555555547</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19">
+        <v>0.92361111111111116</v>
+      </c>
       <c r="C5" s="6">
         <f>B5-A5</f>
-        <v>-0.83680555555555547</v>
+        <v>8.6805555555555691E-2</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="3"/>
@@ -1416,11 +1430,15 @@
         <f>K5-J5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="7"/>
+      <c r="M5" s="20">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="O5" s="6">
         <f>N5-M5</f>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
@@ -1433,7 +1451,7 @@
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
@@ -1520,13 +1538,654 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43353</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.11805555555555558</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.14930555555555558</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.49722222222222223</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.14305555555555555</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="8">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>-0.41666666666666669</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6">
+        <f>B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0.1875</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.71875</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>-0.55555555555555558</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43360</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.7597222222222223</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.18888888888888899</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.68333333333333324</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.18888888888888899</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0.24583333333333318</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.72638888888888886</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Semana 7" sheetId="4" r:id="rId3"/>
     <sheet name="Semanas 8" sheetId="5" r:id="rId4"/>
     <sheet name="Semana 9" sheetId="6" r:id="rId5"/>
+    <sheet name="Semana 10" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -211,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -234,6 +235,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,41 +542,41 @@
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -962,36 +964,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1267,36 +1269,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1574,36 +1576,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1867,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,36 +1890,36 @@
       </c>
     </row>
     <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2016,11 +2018,15 @@
         <f>K4-J4</f>
         <v>0.14583333333333331</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="11">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="O4" s="8">
         <f>N4-M4</f>
-        <v>0</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
@@ -2030,7 +2036,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="19"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5">
@@ -2053,11 +2059,15 @@
         <f>H5-G5</f>
         <v>9.9999999999999867E-2</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
+      <c r="J5" s="5">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.74305555555555547</v>
+      </c>
       <c r="L5" s="6">
         <f>K5-J5</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="3"/>
@@ -2082,9 +2092,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4"/>
+      <c r="J6" s="5">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0.16666666666666663</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="7"/>
       <c r="O6" s="4"/>
@@ -2157,12 +2174,22 @@
         <f>SUM(I4:I8)</f>
         <v>0.24583333333333318</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="K9" s="14"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="13"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="N9" s="14"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0.3611111111111111</v>
+      </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="9"/>
@@ -2173,7 +2200,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9)</f>
-        <v>0.72638888888888886</v>
+        <v>1.4624999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2188,4 +2215,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43367</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.11180555555555549</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.53055555555555556</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.12916666666666665</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.24097222222222214</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.24097222222222214</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -2222,7 +2222,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,11 +2340,15 @@
         <f>B4-A4</f>
         <v>0.11180555555555549</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F4" s="8">
         <f>E4-D4</f>
-        <v>0</v>
+        <v>0.15972222222222227</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
@@ -2382,11 +2386,15 @@
         <f>B5-A5</f>
         <v>0.12916666666666665</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F5" s="8">
         <f>E5-D5</f>
-        <v>0</v>
+        <v>0.35416666666666674</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="3"/>
@@ -2418,11 +2426,11 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="B6" s="3">
-        <v>0.67361111111111116</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="C6" s="8">
         <f>B6-A6</f>
-        <v>0</v>
+        <v>0.14097222222222217</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="7"/>
@@ -2490,7 +2498,7 @@
       <c r="B9" s="14"/>
       <c r="C9" s="9">
         <f>SUM(C4:C8)</f>
-        <v>0.24097222222222214</v>
+        <v>0.38194444444444431</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>2</v>
@@ -2498,7 +2506,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="9">
         <f>SUM(F4:F8)</f>
-        <v>0</v>
+        <v>0.51388888888888906</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>2</v>
@@ -2539,17 +2547,17 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9)</f>
-        <v>0.24097222222222214</v>
+        <v>0.89583333333333337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Semanas 8" sheetId="5" r:id="rId4"/>
     <sheet name="Semana 9" sheetId="6" r:id="rId5"/>
     <sheet name="Semana 10" sheetId="7" r:id="rId6"/>
+    <sheet name="Semana 11" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -2221,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,23 +2351,35 @@
         <f>E4-D4</f>
         <v>0.15972222222222227</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="I4" s="8">
         <f>H4-G4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="L4" s="21">
         <f>K4-J4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.5</v>
+      </c>
       <c r="O4" s="8">
         <f>N4-M4</f>
-        <v>0</v>
+        <v>0.10416666666666669</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
@@ -2408,11 +2421,15 @@
         <f>K5-J5</f>
         <v>0</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="O5" s="6">
         <f>N5-M5</f>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
@@ -2514,7 +2531,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
-        <v>0</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>2</v>
@@ -2522,7 +2539,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="9">
         <f>SUM(L4:L8)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>2</v>
@@ -2530,7 +2547,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="9">
         <f>SUM(O4:O8)</f>
-        <v>0</v>
+        <v>0.27083333333333343</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>2</v>
@@ -2547,7 +2564,353 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9)</f>
-        <v>0.89583333333333337</v>
+        <v>1.541666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43367</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.1833333333333334</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.39166666666666666</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>5.6250000000000022E-2</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.20763888888888893</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0.16041666666666665</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>9.0972222222222232E-2</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.48194444444444456</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.69861111111111129</v>
       </c>
     </row>
   </sheetData>

--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -2585,7 +2585,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,11 +2713,15 @@
         <f>E4-D4</f>
         <v>5.6250000000000022E-2</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="11">
+        <v>0.34375</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.5</v>
+      </c>
       <c r="I4" s="8">
         <f>H4-G4</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
@@ -2759,11 +2763,13 @@
         <f>E5-D5</f>
         <v>0.16041666666666665</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>0.53402777777777777</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6">
         <f>H5-G5</f>
-        <v>0</v>
+        <v>-0.53402777777777777</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="3"/>
@@ -2795,9 +2801,16 @@
         <f>B6-A6</f>
         <v>9.0972222222222232E-2</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="20">
+        <v>0.87847222222222221</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0104166666666667</v>
+      </c>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0.13194444444444453</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="7"/>
       <c r="I6" s="4"/>
@@ -2869,7 +2882,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="9">
         <f>SUM(F4:F8)</f>
-        <v>0.21666666666666667</v>
+        <v>0.3486111111111112</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>2</v>
@@ -2877,7 +2890,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
-        <v>0</v>
+        <v>-0.37777777777777777</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>2</v>
@@ -2910,7 +2923,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9)</f>
-        <v>0.69861111111111129</v>
+        <v>0.45277777777777795</v>
       </c>
     </row>
   </sheetData>

--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Semana 9" sheetId="6" r:id="rId5"/>
     <sheet name="Semana 10" sheetId="7" r:id="rId6"/>
     <sheet name="Semana 11" sheetId="8" r:id="rId7"/>
+    <sheet name="Semana 12" sheetId="9" r:id="rId8"/>
+    <sheet name="Semana 14" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="14">
   <si>
     <t>Inicio</t>
   </si>
@@ -523,7 +525,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2223,7 +2225,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,17 +2725,25 @@
         <f>H4-G4</f>
         <v>0.15625</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.49652777777777773</v>
+      </c>
       <c r="L4" s="21">
         <f>K4-J4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+        <v>0.14236111111111105</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="O4" s="8">
         <f>N4-M4</f>
-        <v>0</v>
+        <v>0.15972222222222227</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="12"/>
@@ -2766,22 +2776,32 @@
       <c r="G5" s="5">
         <v>0.53402777777777777</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="I5" s="6">
         <f>H5-G5</f>
-        <v>-0.53402777777777777</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
+        <v>0.2055555555555556</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="L5" s="6">
         <f>K5-J5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="3"/>
+        <v>0.11458333333333326</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.69791666666666663</v>
+      </c>
       <c r="O5" s="6">
         <f>N5-M5</f>
-        <v>0</v>
+        <v>0.14930555555555558</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="3"/>
@@ -2890,7 +2910,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="9">
         <f>SUM(I4:I8)</f>
-        <v>-0.37777777777777777</v>
+        <v>0.3618055555555556</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>2</v>
@@ -2898,7 +2918,7 @@
       <c r="K9" s="14"/>
       <c r="L9" s="9">
         <f>SUM(L4:L8)</f>
-        <v>0</v>
+        <v>0.25694444444444431</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>2</v>
@@ -2906,7 +2926,7 @@
       <c r="N9" s="14"/>
       <c r="O9" s="9">
         <f>SUM(O4:O8)</f>
-        <v>0</v>
+        <v>0.30902777777777785</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>2</v>
@@ -2923,7 +2943,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(C9,F9,I9,L9,O9,R9)</f>
-        <v>0.45277777777777795</v>
+        <v>1.7583333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -2937,4 +2957,680 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43367</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.16180555555555559</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.16180555555555559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43364</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.33611111111111108</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>5.7638888888888906E-2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>-0.52777777777777779</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.16180555555555559</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>-0.52777777777777779</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.3659722222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Traking Horas Consuagro.xlsx
+++ b/Traking Horas Consuagro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 5" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,13 @@
     <sheet name="Semana 11" sheetId="8" r:id="rId7"/>
     <sheet name="Semana 12" sheetId="9" r:id="rId8"/>
     <sheet name="Semana 14" sheetId="10" r:id="rId9"/>
+    <sheet name="Semana 16" sheetId="11" r:id="rId10"/>
+    <sheet name="Semana 17" sheetId="12" r:id="rId11"/>
+    <sheet name="Semana 20" sheetId="13" r:id="rId12"/>
+    <sheet name="Semana 21" sheetId="14" r:id="rId13"/>
+    <sheet name="Semana 22" sheetId="15" r:id="rId14"/>
+    <sheet name="Semana 23" sheetId="16" r:id="rId15"/>
+    <sheet name="Semana 28" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="15">
   <si>
     <t>Inicio</t>
   </si>
@@ -74,6 +81,9 @@
   </si>
   <si>
     <t>Totales diarios</t>
+  </si>
+  <si>
+    <t>Cumplido la regla de 55</t>
   </si>
 </sst>
 </file>
@@ -726,7 +736,7 @@
         <v>0.48194444444444445</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C7" si="0">B5-A5</f>
+        <f>B5-A5</f>
         <v>4.0277777777777801E-2</v>
       </c>
       <c r="D5" s="5">
@@ -736,7 +746,7 @@
         <v>0.51111111111111118</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F6" si="1">E5-D5</f>
+        <f>E5-D5</f>
         <v>2.6388888888888962E-2</v>
       </c>
       <c r="G5" s="5">
@@ -791,7 +801,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f>B6-A6</f>
         <v>6.9444444444444531E-2</v>
       </c>
       <c r="D6" s="5">
@@ -801,7 +811,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f>E6-D6</f>
         <v>0.16666666666666674</v>
       </c>
       <c r="G6" s="2"/>
@@ -828,7 +838,7 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f>B7-A7</f>
         <v>7.4305555555555625E-2</v>
       </c>
       <c r="D7" s="2"/>
@@ -937,6 +947,2444 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43409</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.50416666666666665</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.18124999999999997</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.6875</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0.39652777777777776</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>-0.36458333333333331</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.35486111111111113</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43416</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>-0.36458333333333331</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.69791666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43437</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.34375</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.15625</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.17708333333333331</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.53125</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.17708333333333337</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>-0.36458333333333331</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.36458333333333326</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43444</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.12777777777777777</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.4375</v>
+      </c>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.70694444444444438</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0.12361111111111101</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>-0.53125</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>-0.4861111111111111</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.71458333333333324</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.79305555555555562</v>
+      </c>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>7.8472222222222388E-2</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>0.84097222222222223</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>8.2638888888888928E-2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0.41041666666666676</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>-0.40347222222222223</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0.29166666666666674</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>-0.46527777777777779</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.16666666666666652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43451</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>-0.54166666666666663</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>-0.37499999999999994</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.37499999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43436</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.34375</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0.11458333333333331</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0.22916666666666674</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0.34375000000000006</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>0.34375000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43500</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+    </row>
+    <row r="3" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4-A4</f>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="F4" s="8">
+        <f>E4-D4</f>
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8">
+        <f>H4-G4</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="21">
+        <f>K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8">
+        <f>N4-M4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="8">
+        <f>Q4-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>0.78125</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="C5" s="8">
+        <f>B5-A5</f>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5-D5</f>
+        <v>0.25694444444444442</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6">
+        <f>H5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="6">
+        <f>K5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="6">
+        <f>N5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6">
+        <f>Q5-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="8">
+        <f>B6-A6</f>
+        <v>-0.8305555555555556</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8">
+        <f>E6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="6">
+        <f>K6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8">
+        <f>B7-A7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <f>SUM(C4:C8)</f>
+        <v>-0.65833333333333344</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="9">
+        <f>SUM(F4:F8)</f>
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9">
+        <f>SUM(I4:I8)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="9">
+        <f>SUM(L4:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="9">
+        <f>SUM(O4:O8)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="9">
+        <f>SUM(R4:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(C9,F9,I9,L9,O9,R9)</f>
+        <v>-0.56111111111111123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3300,8 +5748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3624,12 +6072,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
